--- a/bin/Debug/netcoreapp3.1/RequiredFiles/LoginNavigation.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/LoginNavigation.xlsx
@@ -54,9 +54,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>//*[@id='passwordHidden']</t>
-  </si>
-  <si>
     <t>LogIn</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>//*[contains(@class, 'mix Business --PolicyAdministration')]</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -522,16 +522,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/bin/Debug/netcoreapp3.1/RequiredFiles/LoginNavigation.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/LoginNavigation.xlsx
@@ -69,7 +69,7 @@
     <t>//*[contains(@class, 'mix Business --PolicyAdministration')]</t>
   </si>
   <si>
-    <t>//*[@id='password']</t>
+    <t>//*[@id="password"]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
